--- a/Data Files/IHS_IP_permissions/expected_results_records_partner.xlsx
+++ b/Data Files/IHS_IP_permissions/expected_results_records_partner.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcfu/Katalon Studio/HCI_Group/Data Files/IHS_IP_permissions/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96B82F0-598F-C54B-9193-125B05EFC4E8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="740" yWindow="-14900" windowWidth="16680" windowHeight="14900" tabRatio="500" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abyssinian" sheetId="1" r:id="rId1"/>
@@ -25,7 +31,7 @@
     <sheet name="Monica" sheetId="16" r:id="rId16"/>
     <sheet name="Purple" sheetId="17" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="32">
   <si>
     <t>Names</t>
   </si>
@@ -126,11 +132,17 @@
   <si>
     <t>RSA</t>
   </si>
+  <si>
+    <t>ITAR</t>
+  </si>
+  <si>
+    <t>RSA,ITAR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -791,6 +803,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1115,14 +1135,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
@@ -1130,7 +1150,7 @@
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1176,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1167,7 +1187,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1175,7 +1195,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1192,7 +1212,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1209,7 +1229,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1226,10 +1246,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1">
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
@@ -1237,7 +1263,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1248,10 +1274,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1">
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
@@ -1259,7 +1291,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1">
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1270,7 +1302,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1">
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1280,7 +1312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1">
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1288,7 +1320,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1">
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1308,7 +1340,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1316,10 +1348,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>28</v>
@@ -1328,7 +1360,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1347,7 +1379,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1">
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1367,7 +1399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1">
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1387,18 +1419,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>28</v>
@@ -1419,16 +1451,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +1486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1464,7 +1499,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1472,7 +1507,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1489,7 +1524,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1508,7 +1543,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1527,10 +1562,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
@@ -1538,7 +1579,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1549,10 +1590,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
@@ -1560,7 +1607,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1571,7 +1618,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1582,7 +1629,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1590,7 +1637,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1">
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1610,7 +1657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1618,10 +1665,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>28</v>
@@ -1630,7 +1677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1649,7 +1696,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1669,7 +1716,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1">
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1689,18 +1736,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>28</v>
@@ -1721,16 +1768,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1753,7 +1800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1766,7 +1813,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1774,7 +1821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1791,7 +1838,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1810,7 +1857,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1829,10 +1876,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
@@ -1840,7 +1893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1851,10 +1904,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
@@ -1862,7 +1921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1873,7 +1932,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1881,7 +1940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1892,7 +1951,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1">
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1912,7 +1971,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1920,10 +1979,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>28</v>
@@ -1932,7 +1991,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1951,7 +2010,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1971,7 +2030,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1">
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1991,18 +2050,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>28</v>
@@ -2023,16 +2082,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2055,7 +2114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2068,7 +2127,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2076,7 +2135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2093,7 +2152,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -2112,7 +2171,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -2131,10 +2190,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
@@ -2142,7 +2207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2153,10 +2218,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
@@ -2164,7 +2235,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2175,7 +2246,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2185,7 +2256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2193,7 +2264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1">
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2213,7 +2284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2221,10 +2292,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>28</v>
@@ -2233,7 +2304,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2252,7 +2323,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -2272,7 +2343,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1">
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2292,18 +2363,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
+      <c r="C18" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>28</v>
@@ -2324,16 +2395,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2356,7 +2427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2369,7 +2440,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2377,7 +2448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2394,7 +2465,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -2413,7 +2484,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -2432,10 +2503,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
@@ -2443,7 +2520,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2454,10 +2531,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
@@ -2465,7 +2548,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2476,7 +2559,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2486,7 +2569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2494,7 +2577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1">
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2514,7 +2597,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2522,10 +2605,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>28</v>
@@ -2534,7 +2617,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2553,7 +2636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -2573,7 +2656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1">
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2593,18 +2676,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>28</v>
@@ -2625,16 +2708,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2657,7 +2740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2670,7 +2753,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2678,7 +2761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2695,7 +2778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -2714,7 +2797,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -2733,10 +2816,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
@@ -2744,7 +2833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2755,10 +2844,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
@@ -2766,7 +2861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2777,7 +2872,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2787,7 +2882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2795,7 +2890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1">
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2815,7 +2910,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2823,10 +2918,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>28</v>
@@ -2835,7 +2930,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1">
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2852,7 +2947,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -2872,7 +2967,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1">
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2892,18 +2987,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>28</v>
@@ -2924,16 +3019,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2956,7 +3051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2969,7 +3064,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2977,7 +3072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2994,7 +3089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -3013,7 +3108,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -3032,10 +3127,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
@@ -3043,7 +3144,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3054,10 +3155,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3065,7 +3172,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -3076,7 +3183,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3086,7 +3193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3094,7 +3201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1">
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3114,7 +3221,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3122,10 +3229,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>28</v>
@@ -3134,7 +3241,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1">
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3151,7 +3258,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -3171,7 +3278,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1">
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3191,18 +3298,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>28</v>
@@ -3223,16 +3330,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3255,7 +3362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3268,7 +3375,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3276,7 +3383,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3293,7 +3400,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -3312,7 +3419,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -3331,10 +3438,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
@@ -3342,7 +3455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3353,10 +3466,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3364,7 +3483,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -3375,7 +3494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3385,7 +3504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3393,7 +3512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1">
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3413,7 +3532,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3421,10 +3540,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>28</v>
@@ -3433,7 +3552,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1">
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3450,7 +3569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -3470,7 +3589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1">
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3490,18 +3609,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>28</v>
@@ -3522,16 +3641,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3554,7 +3673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3567,7 +3686,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3575,7 +3694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3592,7 +3711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -3611,7 +3730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -3630,10 +3749,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
@@ -3641,7 +3766,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3652,10 +3777,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3663,7 +3794,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -3674,7 +3805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3684,7 +3815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3692,7 +3823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1">
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3712,7 +3843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3720,10 +3851,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>28</v>
@@ -3732,7 +3863,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1">
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3749,7 +3880,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -3769,7 +3900,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1">
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3789,18 +3920,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>28</v>
@@ -3821,14 +3952,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
@@ -3837,7 +3968,7 @@
     <col min="5" max="5" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3860,7 +3991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3868,7 +3999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3881,7 +4012,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3898,7 +4029,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3917,7 +4048,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3936,10 +4067,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
@@ -3947,7 +4084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3958,10 +4095,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3969,7 +4112,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -3980,7 +4123,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3990,7 +4133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3998,7 +4141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1">
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -4018,7 +4161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -4026,10 +4169,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>28</v>
@@ -4038,7 +4181,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4057,7 +4200,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -4077,7 +4220,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1">
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -4097,18 +4240,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>28</v>
@@ -4129,20 +4272,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4165,7 +4308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4173,7 +4316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4181,7 +4324,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -4198,7 +4341,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -4217,7 +4360,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -4236,10 +4379,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
@@ -4247,7 +4396,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -4258,10 +4407,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
@@ -4269,7 +4424,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -4280,7 +4435,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -4290,7 +4445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -4298,7 +4453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1">
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -4318,7 +4473,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -4326,10 +4481,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>28</v>
@@ -4338,7 +4493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4357,7 +4512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -4377,7 +4532,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1">
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -4397,18 +4552,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>28</v>
@@ -4429,19 +4584,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4464,7 +4619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4472,7 +4627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4480,7 +4635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -4497,7 +4652,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -4516,7 +4671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -4535,10 +4690,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
@@ -4546,7 +4707,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -4557,10 +4718,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
@@ -4568,7 +4735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -4579,7 +4746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -4589,7 +4756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -4597,7 +4764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1">
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -4617,7 +4784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -4625,10 +4792,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>28</v>
@@ -4637,7 +4804,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4656,7 +4823,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -4676,7 +4843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1">
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -4696,18 +4863,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>28</v>
@@ -4728,19 +4895,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4763,7 +4930,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4771,7 +4938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4779,7 +4946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -4796,7 +4963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -4815,7 +4982,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -4834,10 +5001,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
@@ -4845,7 +5018,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -4856,10 +5029,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
@@ -4867,7 +5046,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -4878,7 +5057,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -4888,7 +5067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -4896,7 +5075,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1">
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -4916,7 +5095,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -4924,10 +5103,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>28</v>
@@ -4936,7 +5115,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4955,7 +5134,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -4975,7 +5154,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1">
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -4995,18 +5174,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>28</v>
@@ -5027,19 +5206,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5073,7 +5252,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5081,7 +5260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1">
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5089,7 +5268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1">
+    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -5106,7 +5285,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -5125,7 +5304,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -5144,10 +5323,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1">
+    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
@@ -5155,7 +5340,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1">
+    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -5166,10 +5351,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1">
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
@@ -5177,7 +5368,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="2" customFormat="1">
+    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -5188,7 +5379,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="2" customFormat="1">
+    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -5198,7 +5389,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="2" customFormat="1">
+    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -5206,7 +5397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="2" customFormat="1">
+    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -5226,7 +5417,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="2" customFormat="1">
+    <row r="14" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -5234,10 +5425,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>28</v>
@@ -5246,7 +5437,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5265,7 +5456,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="2" customFormat="1">
+    <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -5285,7 +5476,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1">
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -5305,18 +5496,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>28</v>
@@ -5337,19 +5528,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5372,7 +5563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5385,7 +5576,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5393,7 +5584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -5410,7 +5601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -5429,7 +5620,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -5448,10 +5639,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
@@ -5459,7 +5656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -5470,10 +5667,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
@@ -5481,7 +5684,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -5492,7 +5695,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -5502,7 +5705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -5510,7 +5713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1">
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -5530,7 +5733,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -5538,10 +5741,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>28</v>
@@ -5550,7 +5753,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5569,7 +5772,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -5589,7 +5792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1">
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -5609,18 +5812,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>28</v>
@@ -5641,16 +5844,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5673,7 +5876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5686,7 +5889,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5694,7 +5897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -5711,7 +5914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -5730,7 +5933,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -5749,10 +5952,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
@@ -5760,7 +5969,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -5771,10 +5980,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
@@ -5782,7 +5997,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -5793,7 +6008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -5803,7 +6018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -5811,7 +6026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1">
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -5831,7 +6046,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -5839,10 +6054,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>28</v>
@@ -5851,7 +6066,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5870,7 +6085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -5890,7 +6105,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1">
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -5910,18 +6125,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>28</v>
@@ -5942,16 +6157,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5974,7 +6189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5987,7 +6202,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5995,7 +6210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -6012,7 +6227,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -6031,7 +6246,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -6050,10 +6265,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
@@ -6061,7 +6282,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -6072,10 +6293,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
@@ -6083,7 +6310,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -6094,7 +6321,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -6104,7 +6331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -6112,7 +6339,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1">
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -6132,7 +6359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -6140,10 +6367,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>28</v>
@@ -6152,7 +6379,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -6171,7 +6398,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -6191,7 +6418,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1">
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -6211,18 +6438,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>28</v>

--- a/Data Files/IHS_IP_permissions/expected_results_records_partner.xlsx
+++ b/Data Files/IHS_IP_permissions/expected_results_records_partner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcfu/Katalon Studio/HCI_Group/Data Files/IHS_IP_permissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96B82F0-598F-C54B-9193-125B05EFC4E8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C6DEA1-3E50-4542-97D5-9CCD9CA65531}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="-14900" windowWidth="16680" windowHeight="14900" tabRatio="500" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40600" yWindow="-700" windowWidth="16680" windowHeight="14900" tabRatio="500" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abyssinian" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="32">
   <si>
     <t>Names</t>
   </si>
@@ -1139,7 +1139,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1403,15 +1403,9 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
       <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
@@ -1455,7 +1449,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1720,15 +1714,9 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
@@ -1772,7 +1760,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2034,15 +2022,9 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
@@ -2085,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2347,15 +2329,9 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
@@ -2370,8 +2346,8 @@
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>24</v>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>24</v>
@@ -2399,7 +2375,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2660,15 +2636,9 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
@@ -2712,7 +2682,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2971,15 +2941,9 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
@@ -3023,7 +2987,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3282,15 +3246,9 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
@@ -3334,7 +3292,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3593,15 +3551,9 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
@@ -3644,8 +3596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3904,15 +3856,9 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
@@ -3956,7 +3902,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4224,15 +4170,9 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
       <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
@@ -4276,7 +4216,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4535,15 +4475,6 @@
     <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>28</v>
@@ -4588,7 +4519,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4846,15 +4777,6 @@
     <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>28</v>
@@ -4899,7 +4821,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5158,15 +5080,9 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
@@ -5210,7 +5126,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5480,15 +5396,9 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
@@ -5532,7 +5442,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5796,15 +5706,9 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
@@ -5848,7 +5752,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6109,15 +6013,9 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
@@ -6161,7 +6059,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6422,15 +6320,9 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="F17" s="2" t="s">
         <v>28</v>
       </c>

--- a/Data Files/IHS_IP_permissions/expected_results_records_partner.xlsx
+++ b/Data Files/IHS_IP_permissions/expected_results_records_partner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcfu/Katalon Studio/HCI_Group/Data Files/IHS_IP_permissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C6DEA1-3E50-4542-97D5-9CCD9CA65531}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E36633D-CA9B-F141-AA80-0F3F8556F256}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40600" yWindow="-700" windowWidth="16680" windowHeight="14900" tabRatio="500" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11760" yWindow="1540" windowWidth="14660" windowHeight="14900" tabRatio="500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abyssinian" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,12 @@
     <sheet name="Sokoke" sheetId="10" r:id="rId10"/>
     <sheet name="Turkish Van" sheetId="11" r:id="rId11"/>
     <sheet name="Shaquille Oneil" sheetId="12" r:id="rId12"/>
-    <sheet name="Michael Jordan" sheetId="13" r:id="rId13"/>
-    <sheet name="Michael Jackson" sheetId="14" r:id="rId14"/>
-    <sheet name="Miguel" sheetId="15" r:id="rId15"/>
-    <sheet name="Monica" sheetId="16" r:id="rId16"/>
-    <sheet name="Purple" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId13"/>
+    <sheet name="Michael Jordan" sheetId="13" r:id="rId14"/>
+    <sheet name="Michael Jackson" sheetId="14" r:id="rId15"/>
+    <sheet name="Miguel" sheetId="15" r:id="rId16"/>
+    <sheet name="Monica" sheetId="16" r:id="rId17"/>
+    <sheet name="Purple" sheetId="17" r:id="rId18"/>
   </sheets>
   <calcPr calcId="140000"/>
   <extLst>
@@ -2067,7 +2068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -2371,6 +2372,18 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07AA60B-602E-C749-9787-D5BFCBB5C2A0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -2677,7 +2690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -2982,7 +2995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -3287,7 +3300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -3592,7 +3605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -4518,8 +4531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
